--- a/practice/Ageing-v1-20240503.xlsx
+++ b/practice/Ageing-v1-20240503.xlsx
@@ -8,34 +8,45 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/Security/SWeb/SecurityNotes/public/practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34888355-5543-4043-B78C-5C25E1544E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190F3110-E97B-A242-803B-8EA86DDB43A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19440" yWindow="-24360" windowWidth="25180" windowHeight="20920" activeTab="2" xr2:uid="{74394FEF-3A27-4E61-997F-4533E564CACE}"/>
+    <workbookView xWindow="20300" yWindow="-20440" windowWidth="32400" windowHeight="20920" activeTab="3" xr2:uid="{74394FEF-3A27-4E61-997F-4533E564CACE}"/>
   </bookViews>
   <sheets>
     <sheet name="Ageing (2)" sheetId="1" r:id="rId1"/>
     <sheet name="ParetoChart" sheetId="2" r:id="rId2"/>
     <sheet name="BenfordLaw" sheetId="3" r:id="rId3"/>
+    <sheet name="BoxPlot" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">ParetoChart!$A$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">ParetoChart!$A$2:$A$157</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">BenfordLaw!$D$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">BenfordLaw!$D$3:$D$11</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">BenfordLaw!$E$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">BenfordLaw!$E$3:$E$11</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">BenfordLaw!$F$2</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">BenfordLaw!$F$3:$F$11</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">BenfordLaw!$E$2</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">BenfordLaw!$E$3:$E$11</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">BenfordLaw!$F$2</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">BenfordLaw!$F$3:$F$11</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">BenfordLaw!$D$2</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">BenfordLaw!$D$3:$D$11</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">BoxPlot!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">BoxPlot!$B$2:$B$157</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">BoxPlot!$B$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">BoxPlot!$B$2:$B$157</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">BoxPlot!$B$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">BoxPlot!$B$2:$B$157</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">BoxPlot!$B$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">BoxPlot!$B$2:$B$157</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">BoxPlot!$B$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">BoxPlot!$B$2:$B$157</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">BoxPlot!$B$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">BoxPlot!$B$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">BoxPlot!$B$2:$B$157</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">BoxPlot!$B$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">BoxPlot!$B$2:$B$157</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">BoxPlot!$B$2:$B$157</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">BoxPlot!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">BoxPlot!$B$2:$B$157</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">BoxPlot!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">BoxPlot!$B$2:$B$157</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">BoxPlot!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">BoxPlot!$B$2:$B$157</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="10" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -79,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Invoice_No</t>
   </si>
@@ -239,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -252,7 +263,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -423,6 +433,22 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="388841424"/>
+        <c:axId val="388801568"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -438,15 +464,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>BenfordLaw!$D$3:$D$11</c:f>
@@ -519,6 +547,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0E0C-1A4E-9E4A-DDB55C9B11C0}"/>
@@ -533,11 +562,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="388841424"/>
         <c:axId val="388801568"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="388841424"/>
         <c:scaling>
@@ -805,6 +834,85 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="新細明體" panose="02020500000000000000" pitchFamily="18" charset="-120"/>
+              </a:rPr>
+              <a:t>Box and w</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="新細明體" panose="02020500000000000000" pitchFamily="18" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{015F5CBE-3067-E043-96FC-63B863F548F5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>Invoice_Amount</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="r">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -846,6 +954,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1896,6 +2044,521 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2020,6 +2683,89 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="圖表 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C4E7E2D-516F-F20C-D173-448553F31606}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3175000" y="558800"/>
+              <a:ext cx="10922000" cy="7708900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45416.688062847221" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="156" xr:uid="{0191739C-BD20-524C-8C9D-5793F8D59D31}">
   <cacheSource type="worksheet">
@@ -2681,7 +3427,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49E3B776-4165-304E-8BB4-5EC782FE1212}" name="樞紐分析表2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49E3B776-4165-304E-8BB4-5EC782FE1212}" name="樞紐分析表2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H3:I13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField showAll="0"/>
@@ -3053,7 +3799,7 @@
   <dimension ref="A1:O157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -11278,8 +12024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F797E749-9BE0-1E45-A9CC-1035ACFAD97C}">
   <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -11361,7 +12107,7 @@
       <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4">
         <v>7</v>
       </c>
       <c r="J4" s="5">
@@ -11388,7 +12134,7 @@
       <c r="H5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5">
         <v>30</v>
       </c>
       <c r="J5" s="5">
@@ -11415,7 +12161,7 @@
       <c r="H6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6">
         <v>4</v>
       </c>
       <c r="J6" s="5">
@@ -11442,7 +12188,7 @@
       <c r="H7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7">
         <v>18</v>
       </c>
       <c r="J7" s="5">
@@ -11469,7 +12215,7 @@
       <c r="H8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8">
         <v>41</v>
       </c>
       <c r="J8" s="5">
@@ -11496,7 +12242,7 @@
       <c r="H9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9">
         <v>12</v>
       </c>
       <c r="J9" s="5">
@@ -11523,7 +12269,7 @@
       <c r="H10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10">
         <v>9</v>
       </c>
       <c r="J10" s="5">
@@ -11550,7 +12296,7 @@
       <c r="H11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11">
         <v>22</v>
       </c>
       <c r="J11" s="5">
@@ -11568,7 +12314,7 @@
       <c r="H12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12">
         <v>13</v>
       </c>
       <c r="J12" s="5">
@@ -11586,7 +12332,7 @@
       <c r="H13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13">
         <v>156</v>
       </c>
     </row>
@@ -12747,4 +13493,1281 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221CEDA9-EB41-4549-84A5-D1A5AAC19173}">
+  <dimension ref="A1:B157"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O10" sqref="O1:O1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>26530</v>
+      </c>
+      <c r="B2">
+        <v>92.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>60749</v>
+      </c>
+      <c r="B3">
+        <v>362.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>68010</v>
+      </c>
+      <c r="B4">
+        <v>108.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>70004</v>
+      </c>
+      <c r="B5">
+        <v>561.20000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>70175</v>
+      </c>
+      <c r="B6">
+        <v>467.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>71873</v>
+      </c>
+      <c r="B7">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>73527</v>
+      </c>
+      <c r="B8">
+        <v>144.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>74841</v>
+      </c>
+      <c r="B9">
+        <v>824.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>76144</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1474.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>78025</v>
+      </c>
+      <c r="B11">
+        <v>341.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>121053</v>
+      </c>
+      <c r="B12">
+        <v>69.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>122088</v>
+      </c>
+      <c r="B13">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>123196</v>
+      </c>
+      <c r="B14">
+        <v>876.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>124086</v>
+      </c>
+      <c r="B15">
+        <v>265.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>230592</v>
+      </c>
+      <c r="B16">
+        <v>856.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>232162</v>
+      </c>
+      <c r="B17">
+        <v>46.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>232195</v>
+      </c>
+      <c r="B18">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>232556</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2064.48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>232592</v>
+      </c>
+      <c r="B20">
+        <v>850.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>234056</v>
+      </c>
+      <c r="B21">
+        <v>278.04000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>236195</v>
+      </c>
+      <c r="B22">
+        <v>200.33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>237536</v>
+      </c>
+      <c r="B23">
+        <v>131.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>237541</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1255.5999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>237541</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1255.5999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>237936</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>239215</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1226.4000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>239388</v>
+      </c>
+      <c r="B28">
+        <v>385.71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>290254</v>
+      </c>
+      <c r="B29">
+        <v>50.53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>292710</v>
+      </c>
+      <c r="B30" s="4">
+        <v>5961.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>292710</v>
+      </c>
+      <c r="B31" s="4">
+        <v>5961.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>293631</v>
+      </c>
+      <c r="B32">
+        <v>422.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>293732</v>
+      </c>
+      <c r="B33">
+        <v>537.74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>294698</v>
+      </c>
+      <c r="B34">
+        <v>760.77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>296877</v>
+      </c>
+      <c r="B35">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>437571</v>
+      </c>
+      <c r="B36" s="4">
+        <v>2902.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>475401</v>
+      </c>
+      <c r="B37">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>495491</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1357.44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>514303</v>
+      </c>
+      <c r="B39">
+        <v>531.29999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>517302</v>
+      </c>
+      <c r="B40">
+        <v>49.68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>517506</v>
+      </c>
+      <c r="B41">
+        <v>49.68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>518782</v>
+      </c>
+      <c r="B42" s="4">
+        <v>5358.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>519383</v>
+      </c>
+      <c r="B43">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>519383</v>
+      </c>
+      <c r="B44">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>521119</v>
+      </c>
+      <c r="B45" s="4">
+        <v>2583.96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>522284</v>
+      </c>
+      <c r="B46">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>545947</v>
+      </c>
+      <c r="B47" s="4">
+        <v>5734</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>549215</v>
+      </c>
+      <c r="B48">
+        <v>407.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>581119</v>
+      </c>
+      <c r="B49" s="4">
+        <v>2583.96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>584303</v>
+      </c>
+      <c r="B50">
+        <v>531.29999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>588782</v>
+      </c>
+      <c r="B51" s="4">
+        <v>5358.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>589134</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1738.11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>591533</v>
+      </c>
+      <c r="B53">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>594181</v>
+      </c>
+      <c r="B54">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>594272</v>
+      </c>
+      <c r="B55">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>597380</v>
+      </c>
+      <c r="B56">
+        <v>296.10000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>753988</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1048.9000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>774284</v>
+      </c>
+      <c r="B58">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>846188</v>
+      </c>
+      <c r="B59">
+        <v>179.55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>857275</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>982756</v>
+      </c>
+      <c r="B61">
+        <v>504.32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>986767</v>
+      </c>
+      <c r="B62">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>987320</v>
+      </c>
+      <c r="B63">
+        <v>983.28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>2210571</v>
+      </c>
+      <c r="B64">
+        <v>696.64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>2213337</v>
+      </c>
+      <c r="B65" s="4">
+        <v>3996.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>2214405</v>
+      </c>
+      <c r="B66" s="4">
+        <v>2580.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>2275301</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1428.96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>2623864</v>
+      </c>
+      <c r="B68">
+        <v>187.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>2630620</v>
+      </c>
+      <c r="B69">
+        <v>540.79999999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>2652609</v>
+      </c>
+      <c r="B70">
+        <v>53.64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>3583847</v>
+      </c>
+      <c r="B71">
+        <v>257.52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>3586317</v>
+      </c>
+      <c r="B72">
+        <v>192.91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>3690918</v>
+      </c>
+      <c r="B73">
+        <v>303.12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>3697107</v>
+      </c>
+      <c r="B74">
+        <v>487.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>4371005</v>
+      </c>
+      <c r="B75" s="4">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>4374343</v>
+      </c>
+      <c r="B76">
+        <v>784.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>4511150</v>
+      </c>
+      <c r="B77">
+        <v>486.64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>4513631</v>
+      </c>
+      <c r="B78">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>4514742</v>
+      </c>
+      <c r="B79">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>4516050</v>
+      </c>
+      <c r="B80">
+        <v>619.36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>4517604</v>
+      </c>
+      <c r="B81">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>4904343</v>
+      </c>
+      <c r="B82">
+        <v>784.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>5473114</v>
+      </c>
+      <c r="B83">
+        <v>328.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>5492157</v>
+      </c>
+      <c r="B84">
+        <v>407.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>5493636</v>
+      </c>
+      <c r="B85">
+        <v>932.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>5494732</v>
+      </c>
+      <c r="B86" s="4">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>5518912</v>
+      </c>
+      <c r="B87" s="4">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>5590068</v>
+      </c>
+      <c r="B88" s="4">
+        <v>1266.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>5597136</v>
+      </c>
+      <c r="B89">
+        <v>619.29999999999995</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>5754226</v>
+      </c>
+      <c r="B90">
+        <v>189.24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>5757634</v>
+      </c>
+      <c r="B91">
+        <v>603.77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>5758296</v>
+      </c>
+      <c r="B92">
+        <v>425.88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>5981807</v>
+      </c>
+      <c r="B93">
+        <v>618.29999999999995</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>5983621</v>
+      </c>
+      <c r="B94">
+        <v>31.68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>5983947</v>
+      </c>
+      <c r="B95" s="4">
+        <v>1353.39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>5986811</v>
+      </c>
+      <c r="B96">
+        <v>208.62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>6571899</v>
+      </c>
+      <c r="B97" s="4">
+        <v>1315.68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>6572043</v>
+      </c>
+      <c r="B98" s="4">
+        <v>1847.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>6585673</v>
+      </c>
+      <c r="B99">
+        <v>920.58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>6585880</v>
+      </c>
+      <c r="B100">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>6585951</v>
+      </c>
+      <c r="B101" s="4">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>6586825</v>
+      </c>
+      <c r="B102">
+        <v>445.44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>6588155</v>
+      </c>
+      <c r="B103" s="4">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>6589355</v>
+      </c>
+      <c r="B104">
+        <v>342.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>8457230</v>
+      </c>
+      <c r="B105">
+        <v>187.53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>8459147</v>
+      </c>
+      <c r="B106">
+        <v>175.56</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>8460021</v>
+      </c>
+      <c r="B107">
+        <v>223.44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>8460178</v>
+      </c>
+      <c r="B108">
+        <v>123.69</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>8460244</v>
+      </c>
+      <c r="B109">
+        <v>239.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>8460652</v>
+      </c>
+      <c r="B110">
+        <v>155.61000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>8461997</v>
+      </c>
+      <c r="B111">
+        <v>319.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>8462459</v>
+      </c>
+      <c r="B112">
+        <v>99.75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>8752170</v>
+      </c>
+      <c r="B113" s="4">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>8752383</v>
+      </c>
+      <c r="B114" s="4">
+        <v>1744.4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>8752484</v>
+      </c>
+      <c r="B115">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>8752512</v>
+      </c>
+      <c r="B116" s="4">
+        <v>7125.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>8753401</v>
+      </c>
+      <c r="B117">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>8753401</v>
+      </c>
+      <c r="B118">
+        <v>26.51</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>8753871</v>
+      </c>
+      <c r="B119">
+        <v>17.809999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>8753935</v>
+      </c>
+      <c r="B120" s="4">
+        <v>1048.9000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>8754512</v>
+      </c>
+      <c r="B121" s="4">
+        <v>7125.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>8754871</v>
+      </c>
+      <c r="B122">
+        <v>17.809999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>8754983</v>
+      </c>
+      <c r="B123">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>9515157</v>
+      </c>
+      <c r="B124" s="4">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>9835799</v>
+      </c>
+      <c r="B125">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>9836021</v>
+      </c>
+      <c r="B126" s="4">
+        <v>1312.74</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>9836527</v>
+      </c>
+      <c r="B127" s="4">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>9836955</v>
+      </c>
+      <c r="B128" s="4">
+        <v>1633.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>10650602</v>
+      </c>
+      <c r="B129">
+        <v>686.72</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>10657163</v>
+      </c>
+      <c r="B130">
+        <v>174.57</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>10992576</v>
+      </c>
+      <c r="B131">
+        <v>115.74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>49540141</v>
+      </c>
+      <c r="B132">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>49540683</v>
+      </c>
+      <c r="B133">
+        <v>407.88</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>49540714</v>
+      </c>
+      <c r="B134">
+        <v>401.7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>49545765</v>
+      </c>
+      <c r="B135" s="4">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>49545947</v>
+      </c>
+      <c r="B136" s="4">
+        <v>5734</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>49548491</v>
+      </c>
+      <c r="B137" s="4">
+        <v>1357.44</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>54324133</v>
+      </c>
+      <c r="B138">
+        <v>538.47</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>54326778</v>
+      </c>
+      <c r="B139">
+        <v>397.8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>54328931</v>
+      </c>
+      <c r="B140">
+        <v>532.86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>58720114</v>
+      </c>
+      <c r="B141">
+        <v>158.6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>58724783</v>
+      </c>
+      <c r="B142" s="4">
+        <v>1917.6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>58729337</v>
+      </c>
+      <c r="B143">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>58730008</v>
+      </c>
+      <c r="B144" s="4">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>58730133</v>
+      </c>
+      <c r="B145" s="4">
+        <v>1569.8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>69465398</v>
+      </c>
+      <c r="B146" s="4">
+        <v>1327.92</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>69469082</v>
+      </c>
+      <c r="B147">
+        <v>175.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>90540765</v>
+      </c>
+      <c r="B148" s="4">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>90543683</v>
+      </c>
+      <c r="B149">
+        <v>407.88</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>90545947</v>
+      </c>
+      <c r="B150" s="4">
+        <v>5734</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>90547141</v>
+      </c>
+      <c r="B151">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>90548491</v>
+      </c>
+      <c r="B152" s="4">
+        <v>1357.44</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153">
+        <v>46.08</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154">
+        <v>422.4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" s="4">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>16</v>
+      </c>
+      <c r="B156" s="4">
+        <v>2583.96</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>17</v>
+      </c>
+      <c r="B157">
+        <v>179.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>